--- a/примеры + рекомендации/Пример решения ДЕМО/Ресурсы/Мероприятия_import/Мероприятия_Цифровизация.xlsx
+++ b/примеры + рекомендации/Пример решения ДЕМО/Ресурсы/Мероприятия_import/Мероприятия_Цифровизация.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/ДЭ_2022_Программные решения для бизнеса/После проверки_работать здесь/КОД 1.4/Варианты и КО/Вариант 8/Вариант 8/Сессия 1/Мероприятия_import/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Me\Repos\ПРдБ\примеры + рекомендации\Пример решения ДЕМО\Ресурсы\Мероприятия_import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA6DDD8-2C56-F446-B4C0-124A7730E4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5044AF4C-9852-4BA0-9E95-4527D7856323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="26060" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="2076" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="План мероприятий" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,18 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'План мероприятий'!$A$1:$D$662</definedName>
     <definedName name="Sankt_Peterburg?type_past_RU_2" localSheetId="0">'План мероприятий'!$B$2:$B$86</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -910,19 +921,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="111.83203125" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" customWidth="1"/>
-    <col min="13" max="13" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="111.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" style="7" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -939,7 +950,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -956,7 +967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -970,10 +981,10 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -987,10 +998,10 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1004,10 +1015,10 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1021,10 +1032,10 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1038,10 +1049,10 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1055,10 +1066,10 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1072,10 +1083,10 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1089,10 +1100,10 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1106,10 +1117,10 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1123,10 +1134,10 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1140,10 +1151,10 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1157,10 +1168,10 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1174,10 +1185,10 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1191,10 +1202,10 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1208,10 +1219,10 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1225,10 +1236,10 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1242,10 +1253,10 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1259,10 +1270,10 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1276,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1299,546 +1310,546 @@
       <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A42" s="4"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A47" s="4"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A52" s="4"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A118" s="4"/>
     </row>
   </sheetData>
